--- a/西北工业大学二期供热专线工程/工程量清单抽取表.xlsx
+++ b/西北工业大学二期供热专线工程/工程量清单抽取表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>西北工业大学二期供热专线工程</t>
   </si>
@@ -36,20 +36,6 @@
   </si>
   <si>
     <t>西北工业大学二期供热专线工程—土建工程</t>
-  </si>
-  <si>
-    <t>040101002001</t>
-  </si>
-  <si>
-    <t>挖沟槽土方
-[项目特征]
-1.土壤类别:综合土
-2.挖土深度:平均4m以内
-[工程内容]
-1.土方开挖</t>
-  </si>
-  <si>
-    <t>m3</t>
   </si>
   <si>
     <t>040202014001</t>
@@ -66,6 +52,9 @@
 4.碾压</t>
   </si>
   <si>
+    <t>m3</t>
+  </si>
+  <si>
     <t>DB001</t>
   </si>
   <si>
@@ -79,34 +68,59 @@
     <t>m</t>
   </si>
   <si>
-    <t>040101002002</t>
-  </si>
-  <si>
-    <t>040103001003</t>
+    <t>040103003001</t>
+  </si>
+  <si>
+    <t>外购黄土
+[项目特征]
+1.填方材料品种:外购黄土
+[工作内容]
+1.取料点装料运输至缺方点</t>
+  </si>
+  <si>
+    <t>040103003002</t>
+  </si>
+  <si>
+    <t>040103001007</t>
   </si>
   <si>
     <t>填方
 [项目特征]
-1.填方材料品种:素土
-2.密实度:符合道路设计要求
+1.填方材料品种:细砂回填
+2.密实度:≥0.95
 [工程内容]
 1.填方
 2.压实</t>
   </si>
   <si>
-    <t>040202014002</t>
-  </si>
-  <si>
-    <t>DB002</t>
-  </si>
-  <si>
-    <t>040504002002</t>
+    <t>040103001008</t>
+  </si>
+  <si>
+    <t>填方
+[项目特征]
+1.填方材料品种:3:7灰土(黄土不计费）
+2.密实度:达到图纸设计要求
+3.部位:检查井四周0.5米，底板以上500mm高范围
+[工程内容]
+1.回填
+2.平整、夯实</t>
+  </si>
+  <si>
+    <t>040103002003</t>
+  </si>
+  <si>
+    <t>土方外运
+[项目特征]
+1.废弃料品种:素土</t>
+  </si>
+  <si>
+    <t>040504002004</t>
   </si>
   <si>
     <t>阀门检查井
 [项目特征]
-井编号：BJ2
-1.尺寸:2400mm*3400mm*2000mm
+井编号：FJ4
+1.尺寸:1800mm*3000mm*2000mm
 2.300mm厚3:7灰土垫层，每边宽出垫层边300mm
 3.100mm厚C15商品砼垫层，每边宽出底板边100mm
 4.300mm厚C30商品砼底板，砼抗渗等级P6
@@ -137,67 +151,6 @@
     <t>座</t>
   </si>
   <si>
-    <t>DB003</t>
-  </si>
-  <si>
-    <t>T型直埋固定支墩
-[项目特征]
-支墩编号:G3、G4
-1.尺寸:5200mm*5000mm*3600mm
-2.500mm厚3:7灰土垫层，每边宽出垫层边400mm
-3.100mm厚C15商品砼垫层，每边宽出底板边100mm
-4.700mm厚C30商品砼底板，砼抗渗等级P6
-5.800mm厚C30商品砼支墩壁，砼抗渗等级P6
-6.固定墩前后3m范围内采用3:7灰土回填至墩顶（另列清单）
-7.钢筋制作安装
-8.具体做法详见施工图：G-3页
-[工程内容]
-1.垫层铺筑
-2.混凝土浇筑
-3.养生
-4.钢筋制作安装</t>
-  </si>
-  <si>
-    <t>DB004</t>
-  </si>
-  <si>
-    <t>T型直埋固定支墩
-[项目特征]
-支墩编号:G1、G2
-1.尺寸:4600mm*4200mm*3000mm
-2.500mm厚3:7灰土垫层，每边宽出垫层边400mm
-3.100mm厚C15商品砼垫层，每边宽出底板边100mm
-4.500mm厚C30商品砼底板，砼抗渗等级P6
-5.700mm厚C30商品砼支墩壁，砼抗渗等级P6
-6.固定墩前后3m范围内采用3:7灰土回填至墩顶（另列清单）
-7.钢筋制作安装
-8.具体做法详见施工图：G-3页
-[工程内容]
-1.垫层铺筑
-2.混凝土浇筑
-3.养生
-4.钢筋制作安装</t>
-  </si>
-  <si>
-    <t>040202014003</t>
-  </si>
-  <si>
-    <t>040103001008</t>
-  </si>
-  <si>
-    <t>填方
-[项目特征]
-1.填方材料品种:3:7灰土(黄土不计费）
-2.密实度:达到图纸设计要求
-3.部位:检查井四周0.5米，底板以上500mm高范围
-[工程内容]
-1.回填
-2.平整、夯实</t>
-  </si>
-  <si>
-    <t>DB005</t>
-  </si>
-  <si>
     <t>040203005001</t>
   </si>
   <si>
@@ -214,81 +167,59 @@
     <t>m2</t>
   </si>
   <si>
-    <t>040103001010</t>
+    <t>040801001001</t>
+  </si>
+  <si>
+    <t>拆除面层
+[项目特征]
+1.材质:C25混凝土路面
+2.厚度:20cm
+3.部位:D426管位上（砼路面）
+4.暂定运距：20km
+[工程内容]
+1.拆除
+2.运输</t>
+  </si>
+  <si>
+    <t>040103001009</t>
   </si>
   <si>
     <t>填方
 [项目特征]
-1.填方材料品种:细砂回填
-2.密实度:≥0.95
+1.填方材料品种:素土
+2.密实度:符合道路设计要求
 [工程内容]
 1.填方
 2.压实</t>
   </si>
   <si>
-    <t>040202014005</t>
-  </si>
-  <si>
     <t>040103001011</t>
   </si>
   <si>
-    <t>DB006</t>
-  </si>
-  <si>
-    <t>040103001012</t>
-  </si>
-  <si>
-    <t>040103003005</t>
-  </si>
-  <si>
-    <t>外购黄土
-[项目特征]
-1.填方材料品种:外购黄土
-[工作内容]
-1.取料点装料运输至缺方点</t>
+    <t>040103002004</t>
+  </si>
+  <si>
+    <t>土方外运
+[项目特征]
+1.废弃料品种:素土
+2.暂定运距:20km</t>
+  </si>
+  <si>
+    <t>040103001013</t>
+  </si>
+  <si>
+    <t>040103002005</t>
+  </si>
+  <si>
+    <t>土方外运
+[项目特征]
+1.废弃料品种:素土
+2.暂定运距:20km
+[工程内容]
+1.余方点装料运输至弃置点</t>
   </si>
   <si>
     <t>西北工业大学二期供热专线工程—安装工程</t>
-  </si>
-  <si>
-    <t>040501005001</t>
-  </si>
-  <si>
-    <t>钢管铺设
-[项目特征]
-1.安装部位:室外管沟
-2.名称:预制直埋保温管（供水管道）
-3.材质:螺旋焊钢管Q235B
-4.规格:D720*10
-5.供热介质:120℃高温热水
-6.管道连接方式:氩弧焊打底，普通焊接盖面
-7.防腐、保温:58mm厚改性聚氨酯保温层，10mm厚高密度聚乙烯外保护层
-8.压力等级:设计压力≤1.6MPa
-9.设计起点及分支点预留封堵
-10.其他详见图纸设计说明及规范要求
-11.直埋保温管道主材甲供
-[工作内容]
-1.管道铺设</t>
-  </si>
-  <si>
-    <t>040501005003</t>
-  </si>
-  <si>
-    <t>钢管铺设
-[项目特征]
-1.安装部位:室外管沟
-2.名称:预制直埋保温管（供水管道）
-3.材质:螺旋焊钢管Q235B
-4.规格:D630*8
-5.供热介质:120℃高温热水
-6.管道连接方式:氩弧焊打底，普通焊接盖面
-7.防腐、保温:53.9mm厚改性聚氨酯保温层，8mm厚高密度聚乙烯外保护层,焊口防腐
-8.压力等级:设计压力≤1.6MPa
-9.设计起点及分支点预留封堵
-10.其他详见图纸设计说明及规范要求
-11.直埋保温管道主材甲供
-[工作内容]
-1.管道铺设</t>
   </si>
   <si>
     <t>040501005004</t>
@@ -311,69 +242,15 @@
 1.管道铺设</t>
   </si>
   <si>
-    <t>040502003003</t>
-  </si>
-  <si>
-    <t>直埋式预制保温管件安装
-[项目特征]
-1.管件规格:弯头DN600，σ=10㎜
-2.管件材质:螺旋焊钢管
-3.连接方式:氩弧焊打底，普通焊接盖面
-4.管件主材甲供
-[工作内容]
-1.安装</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>040502012001</t>
-  </si>
-  <si>
-    <t>补偿器安装
-[项目特征]
-1.类型:单向无泄漏套筒补偿器
-2.型号、规格:DN600 Rg ΔX=350mm
-3.连接方式:氩弧焊打底，普通焊接盖面
-4.套筒补偿器主材甲供
-[工作内容]
-1.焊接钢套筒补偿</t>
-  </si>
-  <si>
-    <t>040502003005</t>
-  </si>
-  <si>
-    <t>直埋式预制保温管件安装
-[项目特征]
-1.管件规格:三通DN600*600*350
-2.管件材质:螺旋焊钢管
-3.连接方式:氩弧焊打底，普通焊接盖面
-4.管件主材甲供
-[工作内容]
-1.安装</t>
-  </si>
-  <si>
-    <t>040502010001</t>
-  </si>
-  <si>
-    <t>防水套管制作、安装
-[项目特征]
-1.刚性防水套管:DN900
-2.规格:穿DN600管道
-[工程内容]
-1.制作
-2.安装</t>
-  </si>
-  <si>
-    <t>040501005009</t>
+    <t>040501005006</t>
   </si>
   <si>
     <t>钢管铺设
 [项目特征]
-1.安装部位:检查井（供水管道）
+1.安装部位:检查井（回水管道）
 2.材质:螺旋焊钢管Q235B
-3.规格:D426*7
-4.供热介质:120℃高温热水
+3.规格:D630*8
+4.供热介质:60℃高温热水
 5.管道连接方式:氩弧焊打底，普通焊接盖面
 6.除锈:采用喷射或抛射除锈，表面处理质量等级要求为Sa2.5
 7.焊口防腐:无机富锌底漆（2道）+有机硅耐热中间漆（1道）
@@ -385,12 +262,12 @@
 1.管道铺设</t>
   </si>
   <si>
-    <t>040502003008</t>
+    <t>040502003003</t>
   </si>
   <si>
     <t>直埋式预制保温管件安装
 [项目特征]
-1.管件规格:异径管 DN400*350
+1.管件规格:弯头DN600，σ=10㎜
 2.管件材质:螺旋焊钢管
 3.连接方式:氩弧焊打底，普通焊接盖面
 4.管件主材甲供
@@ -398,17 +275,198 @@
 1.安装</t>
   </si>
   <si>
-    <t>040502003011</t>
+    <t>个</t>
+  </si>
+  <si>
+    <t>040502012002</t>
+  </si>
+  <si>
+    <t>补偿器安装
+[项目特征]
+1.类型:单向无泄漏套筒补偿器
+2.型号、规格:DN600 Rh ΔX=200mm
+3.连接方式:氩弧焊打底，普通焊接盖面
+4.套筒补偿器主材甲供
+[工作内容]
+1.焊接钢套筒补偿</t>
+  </si>
+  <si>
+    <t>040502010001</t>
+  </si>
+  <si>
+    <t>防水套管制作、安装
+[项目特征]
+1.刚性防水套管:DN900
+2.规格:穿DN600管道
+[工程内容]
+1.制作
+2.安装</t>
+  </si>
+  <si>
+    <t>040501005007</t>
+  </si>
+  <si>
+    <t>钢管铺设
+[项目特征]
+1.安装部位:室外管沟
+2.名称:预制直埋保温管（供水管道）
+3.材质:螺旋焊钢管Q235B
+4.规格:D426*7
+5.供热介质:120℃高温热水
+6.管道连接方式:氩弧焊打底，普通焊接盖面
+7.防腐、保温:53.2mm厚改性聚氨酯保温层，4mm厚高密度聚乙烯外保护层
+8.压力等级:设计压力≤1.6MPa
+9.设计起点及分支点预留封堵
+10.其他详见图纸设计说明及规范要求
+11.直埋保温管道主材甲供
+[工作内容]
+1.管道铺设</t>
+  </si>
+  <si>
+    <t>040501005008</t>
+  </si>
+  <si>
+    <t>钢管铺设
+[项目特征]
+1.安装部位:室外管沟
+2.名称:预制直埋保温管（回水管道）
+3.材质:螺旋焊钢管Q235B
+4.规格:D426*7
+5.供热介质:60℃高温热水
+6.管道连接方式:氩弧焊打底，普通焊接盖面
+7.防腐、保温:48.2mm厚普通聚氨酯保温层，4mm厚高密度聚乙烯外保护层
+8.压力等级:设计压力≤1.6MPa
+9.设计起点及分支点预留封堵
+10.其他详见图纸设计说明及规范要求
+11.直埋保温管道主材甲供
+[工作内容]
+1.管道铺设</t>
+  </si>
+  <si>
+    <t>040501005009</t>
+  </si>
+  <si>
+    <t>钢管铺设
+[项目特征]
+1.安装部位:检查井（供水管道）
+2.材质:螺旋焊钢管Q235B
+3.规格:D426*7</t>
+  </si>
+  <si>
+    <t>040502010002</t>
+  </si>
+  <si>
+    <t>防水套管制作、安装
+[项目特征]
+1.刚性防水套管:DN600
+2.规格:穿DN400管道
+[工程内容]
+1.制作
+2.安装</t>
+  </si>
+  <si>
+    <t>040502003007</t>
   </si>
   <si>
     <t>直埋式预制保温管件安装
 [项目特征]
-1.管件规格:DN65 弯头
-2.管件材质:无缝钢管
-3.连接方式:氩弧焊打底，普通焊接盖面
-4.管件主材甲供
+1.管件规格:弯头DN400，σ=9㎜
+2.管件材质:螺旋焊钢管</t>
+  </si>
+  <si>
+    <t>DB004</t>
+  </si>
+  <si>
+    <t>泄水装置
+[项目特征]
+1.螺旋焊钢管D273*6管道0.43m
+2.无缝钢管D89*4管道5m（暂估量），管道上安装DN80球阀2个，DN80弯头1个
+3.DN400*400*250三通管件1个
+4.DN250*250*80三通管件1个
+5.焊口防腐:管道除锈后刷红丹防锈漆两遍
+6.管道、阀门、管件主材甲供
+7.其他详见图纸设计说明及规范要求
+[工程内容]
+1.安装</t>
+  </si>
+  <si>
+    <t>套</t>
+  </si>
+  <si>
+    <t>040501005011</t>
+  </si>
+  <si>
+    <t>钢管铺设
+[项目特征]
+1.安装部位:室外管沟
+2.名称:预制直埋保温管（供水管道）
+3.材质:螺旋焊钢管Q235B
+4.规格:D377*7
+5.供热介质:120℃高温热水
+6.管道连接方式:氩弧焊打底，普通焊接盖面
+7.防腐、保温:48.7mm厚改性聚氨酯保温层，4mm厚高密度聚乙烯外保护层
+8.压力等级:设计压力≤1.6MPa
+9.设计起点及分支点预留封堵
+10.其他详见图纸设计说明及规范要求
+11.直埋保温管道主材甲供
+[工作内容]</t>
+  </si>
+  <si>
+    <t>040501005012</t>
+  </si>
+  <si>
+    <t>钢管铺设
+[项目特征]
+1.安装部位:室外管沟
+2.名称:预制直埋保温管（回水管道）
+3.材质:螺旋焊钢管Q235B
+4.规格:D377*7
+5.供热介质:60℃高温热水
+6.管道连接方式:氩弧焊打底，普通焊接盖面
+7.防腐、保温:43.7mm厚普通聚氨酯保温层，4mm厚高密度聚乙烯外保护层
+8.压力等级:设计压力≤1.6MPa
+9.设计起点及分支点预留封堵
+10.其他详见图纸设计说明及规范要求
+11.直埋保温管道主材甲供
 [工作内容]
-1.安装</t>
+1.管道铺设</t>
+  </si>
+  <si>
+    <t>040501005016</t>
+  </si>
+  <si>
+    <t>钢管铺设
+[项目特征]
+1.安装部位:室外管沟
+2.名称:预制直埋保温管（回水管道）
+3.材质:无缝钢管 20#钢
+4.规格:D219*6
+5.供热介质:60℃高温热水
+6.管道连接方式:氩弧焊打底，普通焊接盖面
+7.防腐、保温:34.3mm厚普通聚氨酯保温层，6.2mm厚高密度聚乙烯外保护层
+8.压力等级:设计压力≤1.6MPa
+9.设计起点及分支点预留封堵
+10.其他详见图纸设计说明及规范要求
+11.直埋保温管道主材甲供
+[工作内容]
+1.管道铺设</t>
+  </si>
+  <si>
+    <t>040501005017</t>
+  </si>
+  <si>
+    <t>钢管铺设
+[项目特征]
+1.安装部位:检查井
+2.材质:无缝钢管20#钢(旁通管)
+3.规格:D76*4
+4.供热介质:120/60℃高温热水
+5.管道连接方式:氩弧焊打底，普通焊接盖面
+6.压力等级:设计压力≤1.6MPa
+7.其他详见图纸设计说明及规范要求
+8.保温管道主材甲供
+[工作内容]
+1.管道铺设</t>
   </si>
 </sst>
 </file>
@@ -492,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -504,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>168.71</v>
+        <v>13.48</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -521,10 +579,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>13.48</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="5">
@@ -532,19 +590,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>37.4</v>
+        <v>113.64</v>
       </c>
     </row>
     <row r="6">
@@ -552,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>13291.07</v>
+        <v>7481.64</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -584,7 +642,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>6175.77</v>
+        <v>364.93</v>
       </c>
     </row>
     <row r="8">
@@ -592,19 +650,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0</v>
+        <v>25.0</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>1357.31</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="9">
@@ -612,19 +670,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0</v>
+        <v>27.0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>4120.8</v>
+        <v>1477.23</v>
       </c>
     </row>
     <row r="10">
@@ -632,16 +690,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0</v>
+        <v>29.0</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>1.0</v>
@@ -652,19 +710,19 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0</v>
+        <v>33.0</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="12">
@@ -672,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0</v>
+        <v>36.0</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>2.0</v>
+        <v>845.89</v>
       </c>
     </row>
     <row r="13">
@@ -692,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>160.68</v>
+        <v>95.95</v>
       </c>
     </row>
     <row r="14">
@@ -712,19 +770,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0</v>
+        <v>41.0</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>10.2</v>
+        <v>9.88</v>
       </c>
     </row>
     <row r="15">
@@ -732,19 +790,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>607.2</v>
+        <v>191.35</v>
       </c>
     </row>
     <row r="16">
@@ -752,19 +810,19 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>33.0</v>
+        <v>48.0</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>845.89</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="17">
@@ -772,319 +830,319 @@
         <v>7</v>
       </c>
       <c r="B17" t="n">
-        <v>39.0</v>
+        <v>51.0</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>19.51</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B18" t="n">
-        <v>40.0</v>
+        <v>6.0</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>9.04</v>
+        <v>2062.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n">
-        <v>41.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>9.88</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B20" t="n">
-        <v>42.0</v>
+        <v>9.0</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F20" t="n">
-        <v>38.8</v>
+        <v>102.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
-        <v>47.0</v>
+        <v>11.0</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F21" t="n">
-        <v>9.41</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B22" t="n">
-        <v>52.0</v>
+        <v>16.0</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F22" t="n">
-        <v>10.82</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>20.0</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
-        <v>18.7</v>
+        <v>304.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" t="n">
-        <v>5.0</v>
+        <v>21.0</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>2062.4</v>
+        <v>304.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B25" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
-        <v>2062.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B26" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F26" t="n">
-        <v>102.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B27" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B28" t="n">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F28" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B29" t="n">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>16.0</v>
+        <v>22.06</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B30" t="n">
-        <v>22.0</v>
+        <v>31.0</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>3.6</v>
+        <v>22.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>27.0</v>
+        <v>39.0</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F31" t="n">
-        <v>2.0</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>43.0</v>
+        <v>41.0</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="F32" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
     </row>
   </sheetData>
